--- a/example_output/spreadsheets/indirect_costs.xlsx
+++ b/example_output/spreadsheets/indirect_costs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,196 @@
         <v>315730.78</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Feb-15</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>258646.23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64905.18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>323551.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar-15</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>256908.04</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62641.01</v>
+      </c>
+      <c r="E4" t="n">
+        <v>319549.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apr-15</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>266766.05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64937.04</v>
+      </c>
+      <c r="E5" t="n">
+        <v>331703.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>May-15</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>262059.38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>65636.77</v>
+      </c>
+      <c r="E6" t="n">
+        <v>327696.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jun-15</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>260316.98</v>
+      </c>
+      <c r="D7" t="n">
+        <v>62965.63</v>
+      </c>
+      <c r="E7" t="n">
+        <v>323282.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jul-15</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>263297.01</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57104.35</v>
+      </c>
+      <c r="E8" t="n">
+        <v>320401.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aug-15</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>254281.27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>58385.58</v>
+      </c>
+      <c r="E9" t="n">
+        <v>312666.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sep-15</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>252867.21</v>
+      </c>
+      <c r="D10" t="n">
+        <v>61618.76</v>
+      </c>
+      <c r="E10" t="n">
+        <v>314485.97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Oct-15</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>317542.44</v>
+      </c>
+      <c r="D11" t="n">
+        <v>72687.45</v>
+      </c>
+      <c r="E11" t="n">
+        <v>390229.89</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nov-15</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>262180.98</v>
+      </c>
+      <c r="D12" t="n">
+        <v>59029.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>321210.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/example_output/spreadsheets/indirect_costs.xlsx
+++ b/example_output/spreadsheets/indirect_costs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,6 +669,234 @@
         <v>321210.78</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dec-15</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>258650.74</v>
+      </c>
+      <c r="D13" t="n">
+        <v>55717.72</v>
+      </c>
+      <c r="E13" t="n">
+        <v>314368.46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jan-16</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>252175.98</v>
+      </c>
+      <c r="D14" t="n">
+        <v>58329.03</v>
+      </c>
+      <c r="E14" t="n">
+        <v>310505.01</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Feb-16</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>244305.23</v>
+      </c>
+      <c r="D15" t="n">
+        <v>60012.48</v>
+      </c>
+      <c r="E15" t="n">
+        <v>304317.71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mar-16</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>241621.2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>58528.24</v>
+      </c>
+      <c r="E16" t="n">
+        <v>300149.44</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Apr-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>239032.88</v>
+      </c>
+      <c r="D17" t="n">
+        <v>63694.36</v>
+      </c>
+      <c r="E17" t="n">
+        <v>302727.24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>May-16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>239635.18</v>
+      </c>
+      <c r="D18" t="n">
+        <v>57655.44</v>
+      </c>
+      <c r="E18" t="n">
+        <v>297290.62</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jun-16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>243293.68</v>
+      </c>
+      <c r="D19" t="n">
+        <v>54036.96</v>
+      </c>
+      <c r="E19" t="n">
+        <v>297330.64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jul-16</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>242000.98</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50080.31</v>
+      </c>
+      <c r="E20" t="n">
+        <v>292081.29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Aug-16</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>234265.6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>54302.69</v>
+      </c>
+      <c r="E21" t="n">
+        <v>288568.29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sep-16</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>240823.88</v>
+      </c>
+      <c r="D22" t="n">
+        <v>56481.26</v>
+      </c>
+      <c r="E22" t="n">
+        <v>297305.14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Oct-16</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>240985.37</v>
+      </c>
+      <c r="D23" t="n">
+        <v>56440.75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>297426.12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Nov-16</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>235683.88</v>
+      </c>
+      <c r="D24" t="n">
+        <v>55490.59</v>
+      </c>
+      <c r="E24" t="n">
+        <v>291174.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
